--- a/MSIPU/PR6/графиккиииитиии.xlsx
+++ b/MSIPU/PR6/графиккиииитиии.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38890A6-0CFD-4194-86A9-401B00067737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>func1</t>
-  </si>
-  <si>
-    <t>ИсходноеФНЧ</t>
   </si>
   <si>
     <t>ФВЧ</t>
@@ -34,9 +39,6 @@
   </si>
   <si>
     <t>ФНЧ</t>
-  </si>
-  <si>
-    <t>ИсходныйФНЧ</t>
   </si>
   <si>
     <t>func3</t>
@@ -54,13 +56,22 @@
     <t>Исход</t>
   </si>
   <si>
-    <t>pp3</t>
+    <t>Исходый</t>
+  </si>
+  <si>
+    <t>Исходное</t>
+  </si>
+  <si>
+    <t>Входной</t>
+  </si>
+  <si>
+    <t>func2 постоянн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -204,7 +214,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ИсходноеФНЧ</c:v>
+                  <c:v>Исходное</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -446,6 +456,9 @@
               <c:f>Аркуш1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ФНЧ</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1050,7 +1063,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1132,7 +1144,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1783,7 +1794,908 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Входной</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$R$2:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$S$2:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D14B-4438-BAF2-5DA40F9B8A84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ФНЧ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$R$2:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$T$2:$T$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D14B-4438-BAF2-5DA40F9B8A84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ФВЧ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$R$2:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$U$2:$U$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D14B-4438-BAF2-5DA40F9B8A84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1190867391"/>
+        <c:axId val="1190868639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1190867391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190868639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1190868639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190867391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1865,7 +2777,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1910,7 +2821,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ИсходныйФНЧ</c:v>
+                  <c:v>Исходный</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2153,7 +3064,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ФВЧ</c:v>
+                  <c:v>ФНЧ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2759,7 +3670,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2841,7 +3751,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3735,7 +4644,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4718,7 +5626,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4800,7 +5707,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4845,7 +5751,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Исход</c:v>
+                  <c:v>Исходый</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5694,7 +6600,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5776,7 +6681,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5821,7 +6725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ИсходноеФНЧ</c:v>
+                  <c:v>Исходное</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6064,7 +6968,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pp3</c:v>
+                  <c:v>ФНЧ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6427,7 +7331,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6509,7 +7412,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6554,7 +7456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ИсходныйФНЧ</c:v>
+                  <c:v>Исходный</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6796,6 +7698,9 @@
               <c:f>Аркуш1!$P$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ФНЧ</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7157,7 +8062,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7239,7 +8143,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7890,7 +8793,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7972,7 +8874,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8633,7 +9534,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8741,6 +9641,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10132,6 +11072,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -14277,7 +15733,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14294,20 +15756,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>565603</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:rowOff>37646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>260803</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:rowOff>18596</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14337,7 +15805,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14367,7 +15841,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14397,7 +15877,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14427,7 +15913,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14457,7 +15949,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14487,7 +15985,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14517,7 +16021,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14547,7 +16057,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14557,6 +16073,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466997</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>162197</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104503</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77A2B58-63BF-4085-8C7F-F24BD2C6E684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14827,75 +16379,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="126" workbookViewId="0">
-      <selection activeCell="BP49" sqref="BP49"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
       </c>
       <c r="O1" t="s">
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>9</v>
       </c>
-      <c r="BA1" t="s">
-        <v>10</v>
-      </c>
       <c r="BB1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14920,6 +16487,21 @@
       <c r="Q2">
         <v>120</v>
       </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(O2:O5)</f>
+        <v>70</v>
+      </c>
+      <c r="T2">
+        <f>AVERAGE(P2:P5)</f>
+        <v>41</v>
+      </c>
+      <c r="U2">
+        <f>AVERAGE(Q2:Q5)</f>
+        <v>38.5</v>
+      </c>
       <c r="Z2">
         <v>1</v>
       </c>
@@ -14957,7 +16539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14982,6 +16564,21 @@
       <c r="Q3">
         <v>90</v>
       </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f>AVERAGE(O3:O6)</f>
+        <v>70</v>
+      </c>
+      <c r="T3">
+        <f>AVERAGE(P3:P6)</f>
+        <v>48</v>
+      </c>
+      <c r="U3">
+        <f>AVERAGE(Q3:Q6)</f>
+        <v>29</v>
+      </c>
       <c r="Z3">
         <v>2</v>
       </c>
@@ -15019,7 +16616,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15044,6 +16641,21 @@
       <c r="Q4">
         <v>-32</v>
       </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <f>AVERAGE(O4:O7)</f>
+        <v>70</v>
+      </c>
+      <c r="T4">
+        <f>AVERAGE(P4:P7)</f>
+        <v>53.25</v>
+      </c>
+      <c r="U4">
+        <f>AVERAGE(Q4:Q7)</f>
+        <v>22</v>
+      </c>
       <c r="Z4">
         <v>3</v>
       </c>
@@ -15081,7 +16693,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15106,6 +16718,21 @@
       <c r="Q5">
         <v>-24</v>
       </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <f>AVERAGE(O5:O8)</f>
+        <v>70</v>
+      </c>
+      <c r="T5">
+        <f>AVERAGE(P5:P8)</f>
+        <v>57</v>
+      </c>
+      <c r="U5">
+        <f>AVERAGE(Q5:Q8)</f>
+        <v>16.75</v>
+      </c>
       <c r="Z5">
         <v>4</v>
       </c>
@@ -15143,7 +16770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15168,6 +16795,21 @@
       <c r="Q6">
         <v>82</v>
       </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <f>AVERAGE(O6:O9)</f>
+        <v>70</v>
+      </c>
+      <c r="T6">
+        <f>AVERAGE(P6:P9)</f>
+        <v>59.75</v>
+      </c>
+      <c r="U6">
+        <f>AVERAGE(Q6:Q9)</f>
+        <v>13</v>
+      </c>
       <c r="Z6">
         <v>5</v>
       </c>
@@ -15205,7 +16847,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15230,6 +16872,21 @@
       <c r="Q7">
         <v>62</v>
       </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <f>AVERAGE(O7:O10)</f>
+        <v>70</v>
+      </c>
+      <c r="T7">
+        <f>AVERAGE(P7:P10)</f>
+        <v>61.75</v>
+      </c>
+      <c r="U7">
+        <f>AVERAGE(Q7:Q10)</f>
+        <v>10.25</v>
+      </c>
       <c r="Z7">
         <v>6</v>
       </c>
@@ -15267,7 +16924,7 @@
         <v>-104</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15292,6 +16949,21 @@
       <c r="Q8">
         <v>-53</v>
       </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <f>AVERAGE(O8:O11)</f>
+        <v>70</v>
+      </c>
+      <c r="T8">
+        <f>AVERAGE(P8:P11)</f>
+        <v>63.25</v>
+      </c>
+      <c r="U8">
+        <f>AVERAGE(Q8:Q11)</f>
+        <v>8.25</v>
+      </c>
       <c r="Z8">
         <v>7</v>
       </c>
@@ -15329,7 +17001,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15354,6 +17026,21 @@
       <c r="Q9">
         <v>-39</v>
       </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <f>AVERAGE(O9:O12)</f>
+        <v>70</v>
+      </c>
+      <c r="T9">
+        <f>AVERAGE(P9:P12)</f>
+        <v>64.5</v>
+      </c>
+      <c r="U9">
+        <f>AVERAGE(Q9:Q12)</f>
+        <v>6.75</v>
+      </c>
       <c r="Z9">
         <v>8</v>
       </c>
@@ -15391,7 +17078,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15416,6 +17103,21 @@
       <c r="Q10">
         <v>71</v>
       </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <f>AVERAGE(O10:O13)</f>
+        <v>70</v>
+      </c>
+      <c r="T10">
+        <f>AVERAGE(P10:P13)</f>
+        <v>65.5</v>
+      </c>
+      <c r="U10">
+        <f>AVERAGE(Q10:Q13)</f>
+        <v>5.5</v>
+      </c>
       <c r="Z10">
         <v>9</v>
       </c>
@@ -15453,7 +17155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15478,6 +17180,21 @@
       <c r="Q11">
         <v>54</v>
       </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <f>AVERAGE(O11:O14)</f>
+        <v>70</v>
+      </c>
+      <c r="T11">
+        <f>AVERAGE(P11:P14)</f>
+        <v>66.25</v>
+      </c>
+      <c r="U11">
+        <f>AVERAGE(Q11:Q14)</f>
+        <v>4.5</v>
+      </c>
       <c r="Z11">
         <v>10</v>
       </c>
@@ -15515,7 +17232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15540,6 +17257,21 @@
       <c r="Q12">
         <v>-59</v>
       </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <f>AVERAGE(O12:O15)</f>
+        <v>70</v>
+      </c>
+      <c r="T12">
+        <f>AVERAGE(P12:P15)</f>
+        <v>66.75</v>
+      </c>
+      <c r="U12">
+        <f>AVERAGE(Q12:Q15)</f>
+        <v>3.75</v>
+      </c>
       <c r="Z12">
         <v>11</v>
       </c>
@@ -15577,7 +17309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15602,6 +17334,21 @@
       <c r="Q13">
         <v>-44</v>
       </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+      <c r="S13">
+        <f>AVERAGE(O13:O16)</f>
+        <v>70</v>
+      </c>
+      <c r="T13">
+        <f>AVERAGE(P13:P16)</f>
+        <v>67</v>
+      </c>
+      <c r="U13">
+        <f>AVERAGE(Q13:Q16)</f>
+        <v>3.25</v>
+      </c>
       <c r="Z13">
         <v>12</v>
       </c>
@@ -15639,7 +17386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15664,6 +17411,21 @@
       <c r="Q14">
         <v>67</v>
       </c>
+      <c r="R14">
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <f>AVERAGE(O14:O17)</f>
+        <v>70</v>
+      </c>
+      <c r="T14">
+        <f>AVERAGE(P14:P17)</f>
+        <v>67</v>
+      </c>
+      <c r="U14">
+        <f>AVERAGE(Q14:Q17)</f>
+        <v>3</v>
+      </c>
       <c r="Z14">
         <v>13</v>
       </c>
@@ -15701,7 +17463,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15726,6 +17488,21 @@
       <c r="Q15">
         <v>51</v>
       </c>
+      <c r="R15">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <f>AVERAGE(O15:O18)</f>
+        <v>70</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE(P15:P18)</f>
+        <v>67</v>
+      </c>
+      <c r="U15">
+        <f>AVERAGE(Q15:Q18)</f>
+        <v>3</v>
+      </c>
       <c r="Z15">
         <v>14</v>
       </c>
@@ -15763,7 +17540,7 @@
         <v>-97</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15788,6 +17565,21 @@
       <c r="Q16">
         <v>-61</v>
       </c>
+      <c r="R16">
+        <v>15</v>
+      </c>
+      <c r="S16">
+        <f>AVERAGE(O16:O19)</f>
+        <v>70</v>
+      </c>
+      <c r="T16">
+        <f>AVERAGE(P16:P19)</f>
+        <v>67</v>
+      </c>
+      <c r="U16">
+        <f>AVERAGE(Q16:Q19)</f>
+        <v>3</v>
+      </c>
       <c r="Z16">
         <v>15</v>
       </c>
@@ -15825,7 +17617,7 @@
         <v>-101</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15850,6 +17642,21 @@
       <c r="Q17">
         <v>-45</v>
       </c>
+      <c r="R17">
+        <v>16</v>
+      </c>
+      <c r="S17">
+        <f>AVERAGE(O17:O20)</f>
+        <v>70</v>
+      </c>
+      <c r="T17">
+        <f>AVERAGE(P17:P20)</f>
+        <v>67</v>
+      </c>
+      <c r="U17">
+        <f>AVERAGE(Q17:Q20)</f>
+        <v>3</v>
+      </c>
       <c r="Z17">
         <v>16</v>
       </c>
@@ -15887,7 +17694,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15912,6 +17719,21 @@
       <c r="Q18">
         <v>67</v>
       </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:S29" si="0">AVERAGE(O18:O21)</f>
+        <v>70</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:T29" si="1">AVERAGE(P18:P21)</f>
+        <v>67</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U33" si="2">AVERAGE(Q18:Q21)</f>
+        <v>3</v>
+      </c>
       <c r="Z18">
         <v>17</v>
       </c>
@@ -15949,7 +17771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15974,6 +17796,21 @@
       <c r="Q19">
         <v>51</v>
       </c>
+      <c r="R19">
+        <v>18</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z19">
         <v>18</v>
       </c>
@@ -16011,7 +17848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16036,6 +17873,21 @@
       <c r="Q20">
         <v>-61</v>
       </c>
+      <c r="R20">
+        <v>19</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z20">
         <v>19</v>
       </c>
@@ -16073,7 +17925,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16098,6 +17950,21 @@
       <c r="Q21">
         <v>-45</v>
       </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z21">
         <v>20</v>
       </c>
@@ -16135,7 +18002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16160,6 +18027,21 @@
       <c r="Q22">
         <v>67</v>
       </c>
+      <c r="R22">
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z22">
         <v>21</v>
       </c>
@@ -16197,7 +18079,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16222,6 +18104,21 @@
       <c r="Q23">
         <v>51</v>
       </c>
+      <c r="R23">
+        <v>22</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z23">
         <v>22</v>
       </c>
@@ -16259,7 +18156,7 @@
         <v>-96</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16284,6 +18181,21 @@
       <c r="Q24">
         <v>-61</v>
       </c>
+      <c r="R24">
+        <v>23</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z24">
         <v>23</v>
       </c>
@@ -16321,7 +18233,7 @@
         <v>-101</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16346,6 +18258,21 @@
       <c r="Q25">
         <v>-45</v>
       </c>
+      <c r="R25">
+        <v>24</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z25">
         <v>24</v>
       </c>
@@ -16383,7 +18310,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16408,6 +18335,21 @@
       <c r="Q26">
         <v>67</v>
       </c>
+      <c r="R26">
+        <v>25</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z26">
         <v>25</v>
       </c>
@@ -16445,7 +18387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16470,6 +18412,21 @@
       <c r="Q27">
         <v>51</v>
       </c>
+      <c r="R27">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z27">
         <v>26</v>
       </c>
@@ -16507,7 +18464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16532,6 +18489,21 @@
       <c r="Q28">
         <v>-61</v>
       </c>
+      <c r="R28">
+        <v>27</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z28">
         <v>27</v>
       </c>
@@ -16569,7 +18541,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16594,6 +18566,21 @@
       <c r="Q29">
         <v>-45</v>
       </c>
+      <c r="R29">
+        <v>28</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="Z29">
         <v>28</v>
       </c>
@@ -16631,7 +18618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16656,6 +18643,9 @@
       <c r="Q30">
         <v>67</v>
       </c>
+      <c r="R30">
+        <v>29</v>
+      </c>
       <c r="Z30">
         <v>29</v>
       </c>
@@ -16693,7 +18683,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16718,6 +18708,9 @@
       <c r="Q31">
         <v>51</v>
       </c>
+      <c r="R31">
+        <v>30</v>
+      </c>
       <c r="Z31">
         <v>30</v>
       </c>
@@ -16755,7 +18748,7 @@
         <v>-96</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16780,6 +18773,9 @@
       <c r="Q32">
         <v>-61</v>
       </c>
+      <c r="R32">
+        <v>31</v>
+      </c>
       <c r="Z32">
         <v>31</v>
       </c>
@@ -16817,7 +18813,7 @@
         <v>-101</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16842,6 +18838,9 @@
       <c r="Q33">
         <v>-45</v>
       </c>
+      <c r="R33">
+        <v>32</v>
+      </c>
       <c r="Z33">
         <v>32</v>
       </c>
@@ -16879,51 +18878,54 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
         <v>5</v>
       </c>
+      <c r="P37" t="s">
+        <v>3</v>
+      </c>
       <c r="Z37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM37" t="s">
         <v>6</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AN37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="s">
         <v>7</v>
       </c>
-      <c r="AB37" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM37" t="s">
+      <c r="BA37" t="s">
         <v>8</v>
       </c>
-      <c r="AN37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>10</v>
-      </c>
       <c r="BB37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -16970,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -17017,7 +19019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -17064,7 +19066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -17111,7 +19113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -17158,7 +19160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -17205,7 +19207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -17252,7 +19254,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -17299,7 +19301,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -17346,7 +19348,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -17393,7 +19395,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -17440,7 +19442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -17487,7 +19489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13</v>
       </c>
@@ -17534,7 +19536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -17581,7 +19583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15</v>
       </c>
@@ -17628,7 +19630,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>16</v>
       </c>
@@ -17675,7 +19677,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>17</v>
       </c>
@@ -17722,7 +19724,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>18</v>
       </c>
@@ -17769,7 +19771,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>19</v>
       </c>
@@ -17816,7 +19818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20</v>
       </c>
@@ -17863,7 +19865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>21</v>
       </c>
@@ -17910,7 +19912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>22</v>
       </c>
@@ -17957,7 +19959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>23</v>
       </c>
@@ -18004,7 +20006,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>24</v>
       </c>
@@ -18051,7 +20053,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>25</v>
       </c>
@@ -18098,7 +20100,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>26</v>
       </c>
@@ -18145,7 +20147,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>27</v>
       </c>
@@ -18192,7 +20194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>28</v>
       </c>
@@ -18239,7 +20241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>29</v>
       </c>
@@ -18286,7 +20288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>30</v>
       </c>
@@ -18333,7 +20335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>31</v>
       </c>
@@ -18380,7 +20382,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>32</v>
       </c>
